--- a/LeafMeAlone.xlsx
+++ b/LeafMeAlone.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,90 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Damaged</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Im1</t>
+  </si>
+  <si>
+    <t>Im2</t>
+  </si>
+  <si>
+    <t>Im3</t>
+  </si>
+  <si>
+    <t>Im4</t>
+  </si>
+  <si>
+    <t>Im5</t>
+  </si>
+  <si>
+    <t>Im6</t>
+  </si>
+  <si>
+    <t>Im7</t>
+  </si>
+  <si>
+    <t>Im8</t>
+  </si>
+  <si>
+    <t>Im9</t>
+  </si>
+  <si>
+    <t>Im10</t>
+  </si>
+  <si>
+    <t>Im11</t>
+  </si>
+  <si>
+    <t>Im12</t>
+  </si>
+  <si>
+    <t>Im13</t>
+  </si>
+  <si>
+    <t>Im14</t>
+  </si>
+  <si>
+    <t>Im15</t>
+  </si>
+  <si>
+    <t>Im16</t>
+  </si>
+  <si>
+    <t>Im17</t>
+  </si>
+  <si>
+    <t>Im18</t>
+  </si>
+  <si>
+    <t>Im19</t>
+  </si>
+  <si>
+    <t>Im20</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +100,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -40,18 +137,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +318,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +526,1329 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="9.140625" style="3"/>
+    <col min="5" max="7" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12">
+        <v>172</v>
+      </c>
+      <c r="C3" s="12">
+        <v>199</v>
+      </c>
+      <c r="D3" s="12">
+        <f>ABS(B3-C3)</f>
+        <v>27</v>
+      </c>
+      <c r="E3" s="13">
+        <v>186</v>
+      </c>
+      <c r="F3" s="13">
+        <v>172</v>
+      </c>
+      <c r="G3" s="13">
+        <f>ABS(E3-F3)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="7">
+        <v>154</v>
+      </c>
+      <c r="C4" s="8">
+        <v>180</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D38" si="0">ABS(B4-C4)</f>
+        <v>26</v>
+      </c>
+      <c r="E4" s="9">
+        <v>175</v>
+      </c>
+      <c r="F4" s="9">
+        <v>161</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G38" si="1">ABS(E4-F4)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="7">
+        <v>163</v>
+      </c>
+      <c r="C5" s="7">
+        <v>183</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E5" s="9">
+        <v>244</v>
+      </c>
+      <c r="F5" s="9">
+        <v>230</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17">
+        <v>160</v>
+      </c>
+      <c r="C6" s="17">
+        <v>192</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E6" s="18">
+        <v>233</v>
+      </c>
+      <c r="F6" s="18">
+        <v>222</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12">
+        <v>105</v>
+      </c>
+      <c r="C7" s="12">
+        <v>150</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E7" s="13">
+        <v>33</v>
+      </c>
+      <c r="F7" s="13">
+        <v>27</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="7">
+        <v>111</v>
+      </c>
+      <c r="C8" s="7">
+        <v>155</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E8" s="9">
+        <v>29</v>
+      </c>
+      <c r="F8" s="9">
+        <v>36</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="7">
+        <v>85</v>
+      </c>
+      <c r="C9" s="7">
+        <v>133</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E9" s="9">
+        <v>36</v>
+      </c>
+      <c r="F9" s="9">
+        <v>26</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17">
+        <v>114</v>
+      </c>
+      <c r="C10" s="17">
+        <v>161</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E10" s="18">
+        <v>44</v>
+      </c>
+      <c r="F10" s="18">
+        <v>13</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="12">
+        <v>91</v>
+      </c>
+      <c r="C11" s="12">
+        <v>160</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E11" s="13">
+        <v>39</v>
+      </c>
+      <c r="F11" s="13">
+        <v>35</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="7">
+        <v>64</v>
+      </c>
+      <c r="C12" s="7">
+        <v>120</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E12" s="9">
+        <v>39</v>
+      </c>
+      <c r="F12" s="9">
+        <v>49</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="7">
+        <v>125</v>
+      </c>
+      <c r="C13" s="7">
+        <v>170</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E13" s="9">
+        <v>44</v>
+      </c>
+      <c r="F13" s="9">
+        <v>37</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17">
+        <v>152</v>
+      </c>
+      <c r="C14" s="17">
+        <v>185</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E14" s="18">
+        <v>27</v>
+      </c>
+      <c r="F14" s="18">
+        <v>32</v>
+      </c>
+      <c r="G14" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7">
+        <v>145</v>
+      </c>
+      <c r="C15" s="7">
+        <v>189</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E15" s="9">
+        <v>142</v>
+      </c>
+      <c r="F15" s="9">
+        <v>149</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="7">
+        <v>153</v>
+      </c>
+      <c r="C16" s="7">
+        <v>181</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E16" s="9">
+        <v>101</v>
+      </c>
+      <c r="F16" s="9">
+        <v>90</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="7">
+        <v>135</v>
+      </c>
+      <c r="C17" s="7">
+        <v>179</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E17" s="9">
+        <v>140</v>
+      </c>
+      <c r="F17" s="9">
+        <v>143</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17">
+        <v>136</v>
+      </c>
+      <c r="C18" s="17">
+        <v>177</v>
+      </c>
+      <c r="D18" s="17">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E18" s="18">
+        <v>110</v>
+      </c>
+      <c r="F18" s="18">
+        <v>194</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="7">
+        <v>57</v>
+      </c>
+      <c r="C19" s="7">
+        <v>124</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E19" s="9">
+        <v>31</v>
+      </c>
+      <c r="F19" s="9">
+        <v>45</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="7">
+        <v>65</v>
+      </c>
+      <c r="C20" s="7">
+        <v>132</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E20" s="9">
+        <v>24</v>
+      </c>
+      <c r="F20" s="9">
+        <v>22</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="7">
+        <v>63</v>
+      </c>
+      <c r="C21" s="7">
+        <v>121</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="E21" s="9">
+        <v>25</v>
+      </c>
+      <c r="F21" s="9">
+        <v>35</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="7">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7">
+        <v>95</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E22" s="9">
+        <v>44</v>
+      </c>
+      <c r="F22" s="9">
+        <v>40</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="7">
+        <v>66</v>
+      </c>
+      <c r="C23" s="7">
+        <v>118</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E23" s="9">
+        <v>189</v>
+      </c>
+      <c r="F23" s="9">
+        <v>201</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="7">
+        <v>59</v>
+      </c>
+      <c r="C24" s="7">
+        <v>106</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E24" s="9">
+        <v>149</v>
+      </c>
+      <c r="F24" s="9">
+        <v>172</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="7">
+        <v>71</v>
+      </c>
+      <c r="C25" s="7">
+        <v>123</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E25" s="9">
+        <v>223</v>
+      </c>
+      <c r="F25" s="9">
+        <v>230</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="7">
+        <v>88</v>
+      </c>
+      <c r="C26" s="7">
+        <v>142</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E26" s="9">
+        <v>156</v>
+      </c>
+      <c r="F26" s="9">
+        <v>176</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="7">
+        <v>91</v>
+      </c>
+      <c r="C27" s="7">
+        <v>134</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E27" s="9">
+        <v>109</v>
+      </c>
+      <c r="F27" s="9">
+        <v>143</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="7">
+        <v>106</v>
+      </c>
+      <c r="C28" s="7">
+        <v>148</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E28" s="9">
+        <v>116</v>
+      </c>
+      <c r="F28" s="9">
+        <v>145</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="7">
+        <v>93</v>
+      </c>
+      <c r="C29" s="7">
+        <v>136</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E29" s="9">
+        <v>126</v>
+      </c>
+      <c r="F29" s="9">
+        <v>155</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="7">
+        <v>97</v>
+      </c>
+      <c r="C30" s="7">
+        <v>137</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E30" s="9">
+        <v>56</v>
+      </c>
+      <c r="F30" s="9">
+        <v>88</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="7">
+        <v>132</v>
+      </c>
+      <c r="C31" s="7">
+        <v>167</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="7">
+        <v>115</v>
+      </c>
+      <c r="C32" s="7">
+        <v>145</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="7">
+        <v>118</v>
+      </c>
+      <c r="C33" s="7">
+        <v>161</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="7">
+        <v>118</v>
+      </c>
+      <c r="C34" s="7">
+        <v>150</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="7">
+        <v>10</v>
+      </c>
+      <c r="C35" s="7">
+        <v>47</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E35" s="9">
+        <v>215</v>
+      </c>
+      <c r="F35" s="9">
+        <v>218</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="7">
+        <v>42</v>
+      </c>
+      <c r="C36" s="7">
+        <v>106</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E36" s="9">
+        <v>191</v>
+      </c>
+      <c r="F36" s="9">
+        <v>211</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="7">
+        <v>72</v>
+      </c>
+      <c r="C37" s="7">
+        <v>135</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E37" s="9">
+        <v>176</v>
+      </c>
+      <c r="F37" s="9">
+        <v>188</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="7">
+        <v>49</v>
+      </c>
+      <c r="C38" s="7">
+        <v>99</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E38" s="9">
+        <v>178</v>
+      </c>
+      <c r="F38" s="9">
+        <v>217</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="16"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="16"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="16"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="16"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="16"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="16"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="1:7" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="16"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LeafMeAlone.xlsx
+++ b/LeafMeAlone.xlsx
@@ -192,37 +192,37 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,1301 +529,1462 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="9.140625" style="3"/>
-    <col min="5" max="7" width="9.140625" style="4"/>
+    <col min="2" max="4" width="9.140625" style="2"/>
+    <col min="5" max="7" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>172</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>199</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <f>ABS(B3-C3)</f>
         <v>27</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="9">
         <v>186</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="9">
         <v>172</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="9">
         <f>ABS(E3-F3)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="7">
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="4">
         <v>154</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>180</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <f t="shared" ref="D4:D38" si="0">ABS(B4-C4)</f>
         <v>26</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>175</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>161</v>
       </c>
-      <c r="G4" s="9">
-        <f t="shared" ref="G4:G38" si="1">ABS(E4-F4)</f>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:G49" si="1">ABS(E4-F4)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="7">
+    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="4">
         <v>163</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>183</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>244</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>230</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17">
+    <row r="6" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="11">
         <v>160</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="11">
         <v>192</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="12">
         <v>233</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="12">
         <v>222</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="12">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="8">
         <v>105</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <v>150</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="9">
         <v>33</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="9">
         <v>27</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="7">
+    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4">
         <v>111</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>155</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>29</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>36</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="7">
+    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4">
         <v>85</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>133</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>36</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>26</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17">
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="11">
         <v>114</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="11">
         <v>161</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="12">
         <v>44</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="12">
         <v>13</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="12">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="8">
         <v>91</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="8">
         <v>160</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="9">
         <v>39</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="9">
         <v>35</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="7">
+    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="4">
         <v>64</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>120</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <v>39</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>49</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="7">
+    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="4">
         <v>125</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>170</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <v>44</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <v>37</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17">
+    <row r="14" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="11">
         <v>152</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="11">
         <v>185</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="11">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="12">
         <v>27</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="12">
         <v>32</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <v>145</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>189</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <v>142</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="6">
         <v>149</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="7">
+    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="4">
         <v>153</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="4">
         <v>181</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>101</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="6">
         <v>90</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="7">
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="4">
         <v>135</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <v>179</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>140</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <v>143</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17">
+    <row r="18" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="11">
         <v>136</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="11">
         <v>177</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="11">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="12">
         <v>110</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="12">
         <v>194</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="12">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="4">
         <v>57</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="4">
         <v>124</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="6">
         <v>31</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="6">
         <v>45</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="7">
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="4">
         <v>65</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="4">
         <v>132</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="4">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <v>24</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="6">
         <v>22</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="7">
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="4">
         <v>63</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="4">
         <v>121</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <v>25</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="6">
         <v>35</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="7">
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="4">
         <v>27</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="4">
         <v>95</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="4">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="6">
         <v>44</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="6">
         <v>40</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="4">
         <v>66</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="4">
         <v>118</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>189</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>201</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="7">
+    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="4">
         <v>59</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="4">
         <v>106</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="6">
         <v>149</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="6">
         <v>172</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="6">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="7">
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="4">
         <v>71</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="4">
         <v>123</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="6">
         <v>223</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="6">
         <v>230</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="7">
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="4">
         <v>88</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="4">
         <v>142</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="6">
         <v>156</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="6">
         <v>176</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="4">
         <v>91</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="4">
         <v>134</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="6">
         <v>109</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="6">
         <v>143</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="6">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="7">
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="4">
         <v>106</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="4">
         <v>148</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="6">
         <v>116</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="6">
         <v>145</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="7">
+    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="4">
         <v>93</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="4">
         <v>136</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="6">
         <v>126</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="6">
         <v>155</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="7">
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="4">
         <v>97</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="4">
         <v>137</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="6">
         <v>56</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="6">
         <v>88</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="6">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="4">
         <v>132</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="4">
         <v>167</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="7">
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="4">
         <v>115</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="4">
         <v>145</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="7">
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="4">
         <v>118</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="4">
         <v>161</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="7">
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="4">
         <v>118</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="4">
         <v>150</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9">
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="4">
         <v>10</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="4">
         <v>47</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="6">
         <v>215</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="6">
         <v>218</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="7">
+    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="4">
         <v>42</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="4">
         <v>106</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="6">
         <v>191</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="6">
         <v>211</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="7">
+    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="4">
         <v>72</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="4">
         <v>135</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="6">
         <v>176</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="6">
         <v>188</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="7">
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="4">
         <v>49</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="4">
         <v>99</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="6">
         <v>178</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="6">
         <v>217</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="6">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="B39" s="4">
+        <v>129</v>
+      </c>
+      <c r="C39" s="4">
+        <v>167</v>
+      </c>
+      <c r="D39" s="4">
+        <f>ABS(B39-C39)</f>
+        <v>38</v>
+      </c>
+      <c r="E39" s="6">
+        <v>37</v>
+      </c>
+      <c r="F39" s="6">
+        <v>27</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="4">
+        <v>116</v>
+      </c>
+      <c r="C40" s="4">
+        <v>148</v>
+      </c>
+      <c r="D40" s="4">
+        <f>ABS(B40-C40)</f>
+        <v>32</v>
+      </c>
+      <c r="E40" s="6">
+        <v>31</v>
+      </c>
+      <c r="F40" s="6">
+        <v>24</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="4">
+        <v>83</v>
+      </c>
+      <c r="C41" s="4">
+        <v>126</v>
+      </c>
+      <c r="D41" s="4">
+        <f>ABS(B41-C41)</f>
+        <v>43</v>
+      </c>
+      <c r="E41" s="6">
+        <v>32</v>
+      </c>
+      <c r="F41" s="6">
+        <v>36</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+      <c r="B42" s="4">
+        <v>71</v>
+      </c>
+      <c r="C42" s="4">
+        <v>102</v>
+      </c>
+      <c r="D42" s="4">
+        <f>ABS(B42-C42)</f>
+        <v>31</v>
+      </c>
+      <c r="E42" s="6">
+        <v>21</v>
+      </c>
+      <c r="F42" s="6">
         <v>13</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-    </row>
-    <row r="46" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-    </row>
-    <row r="47" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="G42" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="4">
+        <v>139</v>
+      </c>
+      <c r="C43" s="4">
+        <v>182</v>
+      </c>
+      <c r="D43" s="4">
+        <f>ABS(B43-C43)</f>
+        <v>43</v>
+      </c>
+      <c r="E43" s="6">
+        <v>96</v>
+      </c>
+      <c r="F43" s="6">
+        <v>91</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="4">
+        <v>101</v>
+      </c>
+      <c r="C44" s="4">
+        <v>123</v>
+      </c>
+      <c r="D44" s="4">
+        <f>ABS(B44-C44)</f>
+        <v>22</v>
+      </c>
+      <c r="E44" s="6">
+        <v>76</v>
+      </c>
+      <c r="F44" s="6">
+        <v>64</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="4">
+        <v>105</v>
+      </c>
+      <c r="C45" s="4">
+        <v>134</v>
+      </c>
+      <c r="D45" s="4">
+        <f>ABS(B45-C45)</f>
+        <v>29</v>
+      </c>
+      <c r="E45" s="6">
+        <v>74</v>
+      </c>
+      <c r="F45" s="6">
+        <v>60</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-    </row>
-    <row r="48" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+    </row>
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="4">
+        <v>122</v>
+      </c>
+      <c r="C46" s="4">
+        <v>143</v>
+      </c>
+      <c r="D46" s="4">
+        <f>ABS(B46-C46)</f>
+        <v>21</v>
+      </c>
+      <c r="E46" s="6">
+        <v>63</v>
+      </c>
+      <c r="F46" s="6">
+        <v>52</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="4">
+        <v>118</v>
+      </c>
+      <c r="C47" s="4">
+        <v>144</v>
+      </c>
+      <c r="D47" s="4">
+        <f>ABS(B47-C47)</f>
+        <v>26</v>
+      </c>
+      <c r="E47" s="6">
+        <v>160</v>
+      </c>
+      <c r="F47" s="6">
+        <v>101</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="4">
+        <v>113</v>
+      </c>
+      <c r="C48" s="4">
+        <v>135</v>
+      </c>
+      <c r="D48" s="4">
+        <f>ABS(B48-C48)</f>
+        <v>22</v>
+      </c>
+      <c r="E48" s="6">
+        <v>61</v>
+      </c>
+      <c r="F48" s="6">
+        <v>67</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="4">
+        <v>123</v>
+      </c>
+      <c r="C49" s="4">
+        <v>137</v>
+      </c>
+      <c r="D49" s="4">
+        <f>ABS(B49-C49)</f>
+        <v>14</v>
+      </c>
+      <c r="E49" s="6">
+        <v>102</v>
+      </c>
+      <c r="F49" s="6">
+        <v>87</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-    </row>
-    <row r="53" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+    </row>
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="15"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="15"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="16"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="15"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="16"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="15"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="1:7" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="16"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="1:7" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="15"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="A67:A70"/>
     <mergeCell ref="A71:A74"/>
     <mergeCell ref="A75:A78"/>
@@ -1840,13 +2001,6 @@
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" r:id="rId1"/>
